--- a/datos/datostld100.xlsx
+++ b/datos/datostld100.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">E (eV)</t>
   </si>
@@ -254,12 +254,15 @@
       <t xml:space="preserve">-3)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Ef</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
@@ -267,10 +270,11 @@
     <numFmt numFmtId="168" formatCode="#,##0"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
     <numFmt numFmtId="170" formatCode="0.00E+00"/>
-    <numFmt numFmtId="171" formatCode="0"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000%"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="General"/>
+    <numFmt numFmtId="172" formatCode="0"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="0.000%"/>
+    <numFmt numFmtId="175" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -425,6 +429,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,7 +449,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,11 +457,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,11 +465,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,7 +477,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,7 +489,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -570,10 +574,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q999"/>
+  <dimension ref="A1:R999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -585,8 +589,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="3" width="13.54"/>
@@ -646,6 +650,9 @@
       <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
@@ -660,7 +667,7 @@
       <c r="D2" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="11" t="n">
         <f aca="false">25*1000000000000</f>
         <v>25000000000000</v>
       </c>
@@ -685,20 +692,23 @@
       <c r="L2" s="9" t="n">
         <v>1000000000</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="12" t="n">
         <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -714,7 +724,7 @@
       <c r="D3" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="11" t="n">
         <f aca="false">10*1000000000000</f>
         <v>10000000000000</v>
       </c>
@@ -739,7 +749,7 @@
       <c r="D4" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="11" t="n">
         <f aca="false">5*1000000000000</f>
         <v>5000000000000</v>
       </c>
@@ -753,10 +763,10 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>2.12935684586185</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="14" t="n">
         <v>4.53720404994271E+021</v>
       </c>
       <c r="C5" s="9" t="n">
@@ -765,7 +775,7 @@
       <c r="D5" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="11" t="n">
         <f aca="false">5*1000000000000</f>
         <v>5000000000000</v>
       </c>
@@ -778,7 +788,7 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>2.5</v>
       </c>
       <c r="B6" s="10" t="n">
@@ -790,7 +800,7 @@
       <c r="D6" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="11" t="n">
         <f aca="false">65*1000000000000</f>
         <v>65000000000000</v>
       </c>
@@ -798,40 +808,40 @@
         <v>1E-008</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="N6" s="3"/>
       <c r="O6" s="2"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E9" s="18"/>

--- a/datos/datostld100.xlsx
+++ b/datos/datostld100.xlsx
@@ -262,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
@@ -270,11 +270,10 @@
     <numFmt numFmtId="168" formatCode="#,##0"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
     <numFmt numFmtId="170" formatCode="0.00E+00"/>
-    <numFmt numFmtId="171" formatCode="General"/>
-    <numFmt numFmtId="172" formatCode="0"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.000%"/>
-    <numFmt numFmtId="175" formatCode="#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.000%"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -384,7 +383,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,14 +428,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,7 +448,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,27 +456,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,7 +492,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:R999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,7 +670,7 @@
       <c r="D2" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="8" t="n">
         <f aca="false">25*1000000000000</f>
         <v>25000000000000</v>
       </c>
@@ -692,22 +695,22 @@
       <c r="L2" s="9" t="n">
         <v>1000000000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="12" t="n">
         <v>2.7</v>
       </c>
     </row>
@@ -724,7 +727,7 @@
       <c r="D3" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="8" t="n">
         <f aca="false">10*1000000000000</f>
         <v>10000000000000</v>
       </c>
@@ -749,7 +752,7 @@
       <c r="D4" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">5*1000000000000</f>
         <v>5000000000000</v>
       </c>
@@ -775,7 +778,7 @@
       <c r="D5" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="8" t="n">
         <f aca="false">5*1000000000000</f>
         <v>5000000000000</v>
       </c>
@@ -800,7 +803,7 @@
       <c r="D6" s="10" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="8" t="n">
         <f aca="false">65*1000000000000</f>
         <v>65000000000000</v>
       </c>
@@ -825,7 +828,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -844,32 +847,32 @@
       <c r="K8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O14" s="1"/>
@@ -881,20 +884,20 @@
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1890,7 +1893,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1913,7 +1916,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
